--- a/parabolic/2025/09/18/parabolic.xlsx
+++ b/parabolic/2025/09/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>196A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D2" t="n">
-        <v>716200</v>
+        <v>104600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" t="n">
-        <v>609100</v>
+        <v>1818300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>342</v>
       </c>
       <c r="D4" t="n">
-        <v>164100</v>
+        <v>844200</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>7868</t>
+          <t>5010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>445</v>
+        <v>199</v>
       </c>
       <c r="D5" t="n">
-        <v>463500</v>
+        <v>133800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>5131</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,16 +574,108 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>601</v>
+        <v>212</v>
       </c>
       <c r="D6" t="n">
-        <v>388100</v>
+        <v>191000</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>6775</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>141</v>
+      </c>
+      <c r="D7" t="n">
+        <v>187000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>7630</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>959</v>
+      </c>
+      <c r="D8" t="n">
+        <v>114600</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>7868</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>444</v>
+      </c>
+      <c r="D9" t="n">
+        <v>576400</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>9553</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>589</v>
+      </c>
+      <c r="D10" t="n">
+        <v>540700</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/18/parabolic.xlsx
+++ b/parabolic/2025/09/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D2" t="n">
-        <v>104600</v>
+        <v>127500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D3" t="n">
-        <v>1818300</v>
+        <v>2399500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D4" t="n">
-        <v>844200</v>
+        <v>961900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>5010</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>199</v>
+        <v>628</v>
       </c>
       <c r="D5" t="n">
-        <v>133800</v>
+        <v>123100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5131</t>
+          <t>5010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D6" t="n">
-        <v>191000</v>
+        <v>146600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>5131</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="D7" t="n">
-        <v>187000</v>
+        <v>205700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>5942</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>959</v>
+        <v>560</v>
       </c>
       <c r="D8" t="n">
-        <v>114600</v>
+        <v>129800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7868</t>
+          <t>6775</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>140</v>
       </c>
       <c r="D9" t="n">
-        <v>576400</v>
+        <v>199300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,62 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>589</v>
+        <v>960</v>
       </c>
       <c r="D10" t="n">
-        <v>540700</v>
+        <v>158100</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>7868</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>445</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1020400</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>9553</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>590</v>
+      </c>
+      <c r="D12" t="n">
+        <v>609300</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/18/parabolic.xlsx
+++ b/parabolic/2025/09/18/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D2" t="n">
-        <v>127500</v>
+        <v>140400</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>3053</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>341</v>
+        <v>186</v>
       </c>
       <c r="D3" t="n">
-        <v>2399500</v>
+        <v>193800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>345</v>
+        <v>854</v>
       </c>
       <c r="D4" t="n">
-        <v>961900</v>
+        <v>212800</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>628</v>
+        <v>343</v>
       </c>
       <c r="D5" t="n">
-        <v>123100</v>
+        <v>3098100</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5010</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>197</v>
+        <v>355</v>
       </c>
       <c r="D6" t="n">
-        <v>146600</v>
+        <v>1097100</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5131</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>210</v>
+        <v>439</v>
       </c>
       <c r="D7" t="n">
-        <v>205700</v>
+        <v>115300</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5942</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="D8" t="n">
-        <v>129800</v>
+        <v>146200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>5010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="D9" t="n">
-        <v>199300</v>
+        <v>178200</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>5131</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>960</v>
+        <v>209</v>
       </c>
       <c r="D10" t="n">
-        <v>158100</v>
+        <v>236500</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7868</t>
+          <t>5942</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>445</v>
+        <v>557</v>
       </c>
       <c r="D11" t="n">
-        <v>1020400</v>
+        <v>142800</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>9553</t>
+          <t>6775</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,16 +712,85 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>590</v>
+        <v>139</v>
       </c>
       <c r="D12" t="n">
-        <v>609300</v>
+        <v>235600</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7630</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>960</v>
+      </c>
+      <c r="D13" t="n">
+        <v>241000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>7868</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>445</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1268000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>9553</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>590</v>
+      </c>
+      <c r="D15" t="n">
+        <v>696900</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
